--- a/data/maindata.xlsx
+++ b/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7220" yWindow="20" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="races" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4472" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593" uniqueCount="724">
   <si>
     <t>party</t>
   </si>
@@ -2006,6 +2007,192 @@
   </si>
   <si>
     <t>Source: Minnesota Legislature, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Minnesota Legislature, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>races</t>
+  </si>
+  <si>
+    <t>Historical voting data per Minnesota legislative district</t>
+  </si>
+  <si>
+    <t>Legislator for district</t>
+  </si>
+  <si>
+    <t>District ID</t>
+  </si>
+  <si>
+    <t>District political lean</t>
+  </si>
+  <si>
+    <t>Is the race a rematch? (New/Rematch)</t>
+  </si>
+  <si>
+    <t>Is the district an open seat? (Open/Occupied)</t>
+  </si>
+  <si>
+    <t>Is the candidate running unopposed? (Opposed/Unopposed)</t>
+  </si>
+  <si>
+    <t>Party affiliation (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>A control for the animated bubbles</t>
+  </si>
+  <si>
+    <t>Number of terms candidate has servec</t>
+  </si>
+  <si>
+    <t>Was there a GOP primary? (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Was there a DFL primate? (TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Vote margin for the 2012 race if it was close</t>
+  </si>
+  <si>
+    <t>Percent margin for the 2012 race if it was close</t>
+  </si>
+  <si>
+    <t>Did the candidate vote for the same-sex marriage amendment? (Yes/No)</t>
+  </si>
+  <si>
+    <t>Which parties held the House seat the last five elections? (R,D)</t>
+  </si>
+  <si>
+    <t>Which parties held the Senate seat the last five elections? (R,D)</t>
+  </si>
+  <si>
+    <t>How many times has the senate seat flipped?</t>
+  </si>
+  <si>
+    <t>How many times has the House seat flipped?</t>
+  </si>
+  <si>
+    <t>The party to win the most representation in the district the last six elections (R,D)</t>
+  </si>
+  <si>
+    <t>Did the district vote for president in 2012 along party lines? (Party Lines, Obama Win, Romney Win)</t>
+  </si>
+  <si>
+    <t>Did the district vote for governor in 2010 along party lines? (Party Lines, Dayton Win, Emmer Win)</t>
+  </si>
+  <si>
+    <t>What party did the district vote for in the 2008 Senate race? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>How many times has the Minnesota Legislature flipped party control the past six elections?</t>
+  </si>
+  <si>
+    <t>Which party controlled the Minnesota Legislature the past six elections? (R,D)</t>
+  </si>
+  <si>
+    <t>Race category (Swing, Unopposed, D Lean, D Stronghold, R Lea, R Stronghold)</t>
+  </si>
+  <si>
+    <t>Race status (Safe, Watch, Vulnerable)</t>
+  </si>
+  <si>
+    <t>How much money did the candidate raise in the 2012 election?</t>
+  </si>
+  <si>
+    <t>Further notes on the race</t>
+  </si>
+  <si>
+    <t>2014 GOP candidate for this seat</t>
+  </si>
+  <si>
+    <t>2014 DFL candidate for this seat</t>
+  </si>
+  <si>
+    <t>Which party won the House in 2004? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>Which party won the House in 2006? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>Which party won the House in 2008? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>Which party won the House in 2010? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>Which party won the House in 2012? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2004 race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2006 race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2008 race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2010 race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2012 race</t>
+  </si>
+  <si>
+    <t>Which part won this district's Senate seat in 2006? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>Which part won this district's Senate seat in 2010? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>Which part won this district's Senate seat in 2012? (GOP/DFL)</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2006 Senate race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2008 Senate race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the 2010 Senate race</t>
+  </si>
+  <si>
+    <t>Which party did the district vote for in the 2004 presidential election? (R/D)</t>
+  </si>
+  <si>
+    <t>Which party did the district vote for in the 2008 presidential election? (R/D)</t>
+  </si>
+  <si>
+    <t>Which party did the district vote for in the 2012 presidential election? (R/D)</t>
+  </si>
+  <si>
+    <t>The margin of victory in the district for the 2004 presidential race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the district for the 2008 presidential race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the district for the 2012 presidential race</t>
+  </si>
+  <si>
+    <t>The margin of victory in the district for the 2006 gubenetorial race</t>
+  </si>
+  <si>
+    <t>Which party did the district vote for in the 2010 gubenetorial election? (R/D)</t>
+  </si>
+  <si>
+    <t>Which party did the district vote for in the 2006 gubenetorial election? (R/D)</t>
+  </si>
+  <si>
+    <t>The margin of victory in the district for the 2010 gubenetorial race</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2202,41 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2041,14 +2259,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="33">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2380,9 +2664,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection sqref="A1:BE1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="28" max="28" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:57">
       <c r="A1" t="s">
@@ -23293,6 +23582,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -23303,26 +23593,537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
